--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1143269.503371939</v>
+        <v>1208976.55593832</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>228578.6622892127</v>
+        <v>202234.1872545396</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11773978.35958493</v>
+        <v>11773978.35958494</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7124639.834490943</v>
+        <v>7124639.834490942</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>29.1427070647979</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>18.23903973000353</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>122.5899586056058</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>18.82206244933327</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>202.2946864288972</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>108.3856149073918</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>26.69748593048084</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>167.565534685087</v>
+        <v>119.0246026812329</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>161.6448423772186</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>194.7929762389324</v>
       </c>
       <c r="U12" t="n">
-        <v>199.5367647732582</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>167.537897457236</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1988625129318</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>156.9211815276446</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>5.991709168150543</v>
+        <v>14.05979669207226</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>348.1358742514668</v>
+        <v>116.1836115218833</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.2926691378088</v>
       </c>
       <c r="H14" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,10 +1688,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1700,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>107.0159873637655</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.60350559207137</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>161.6448423772186</v>
       </c>
       <c r="T15" t="n">
-        <v>197.9863995095175</v>
+        <v>115.9789375223493</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>104.8337824391908</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>48.22261241385099</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>156.9211815276446</v>
       </c>
       <c r="S16" t="n">
-        <v>194.0496263582884</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2943157982424</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>49.19045418288694</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>196.9169189611812</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>414.2926691378088</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.42041023393328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.045364972971784</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I18" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>161.6448423772186</v>
       </c>
       <c r="T18" t="n">
-        <v>197.9863995095175</v>
+        <v>72.38793541532395</v>
       </c>
       <c r="U18" t="n">
         <v>225.9058271976456</v>
       </c>
       <c r="V18" t="n">
-        <v>168.1800031909853</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>141.8250664795777</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.48235463580949</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>193.8209438199395</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>123.4828115886949</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>86.42041023393332</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>32.75090233201151</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>161.6448423772186</v>
+        <v>82.358592836697</v>
       </c>
       <c r="T21" t="n">
         <v>197.9863995095175</v>
@@ -2219,7 +2219,7 @@
         <v>225.9058271976456</v>
       </c>
       <c r="V21" t="n">
-        <v>8.445125215520351</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>194.0496263582882</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>193.8209438199398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>122.5915982230236</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>265.2101786338234</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2414,10 +2414,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>114.8791903675466</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>46.29925682407461</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2645,7 +2645,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>136.5310119231965</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>22.11041309544132</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>4.55385834063818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>133.2735864417104</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,10 +2888,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -3009,10 +3009,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>94.63926978364034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>275.4805812731078</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>287.7755534974539</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>23.32897990642486</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.0102149207191</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>46.58646588932444</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>221.0021786982958</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>221.002178698296</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>26.32882004050029</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>88.18421182873882</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>275.4805812731078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>215.5834727383624</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>221.0021786982958</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>109.4741142561152</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -4027,25 +4027,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>173.7001491014861</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.47235360622864</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="C3" t="n">
-        <v>49.47235360622864</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="D3" t="n">
-        <v>49.47235360622864</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="E3" t="n">
-        <v>49.47235360622864</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>37.70441556476175</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>37.70441556476175</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X3" t="n">
-        <v>257.2326523711826</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="Y3" t="n">
-        <v>49.47235360622864</v>
+        <v>176.4352409821462</v>
       </c>
     </row>
     <row r="4">
@@ -4521,10 +4521,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4552,7 +4552,7 @@
         <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
         <v>315.6850394389064</v>
@@ -4612,7 +4612,7 @@
         <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>257.2326523711826</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="C6" t="n">
-        <v>257.2326523711826</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D6" t="n">
-        <v>257.2326523711826</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E6" t="n">
-        <v>257.2326523711826</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F6" t="n">
-        <v>257.2326523711826</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4658,13 +4658,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>569.4410320278153</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>569.4410320278153</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>569.4410320278153</v>
       </c>
       <c r="X6" t="n">
-        <v>257.2326523711826</v>
+        <v>569.4410320278153</v>
       </c>
       <c r="Y6" t="n">
-        <v>257.2326523711826</v>
+        <v>361.6807332628614</v>
       </c>
     </row>
     <row r="7">
@@ -4758,7 +4758,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
         <v>19.28114311021272</v>
@@ -4792,7 +4792,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4834,22 +4834,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>380.6929175551172</v>
+        <v>277.6959718698396</v>
       </c>
       <c r="C9" t="n">
-        <v>206.2398882739901</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D9" t="n">
-        <v>206.2398882739901</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>47.00243326853465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4892,16 +4892,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>588.4532163200711</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>588.4532163200711</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X9" t="n">
-        <v>588.4532163200711</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y9" t="n">
-        <v>380.6929175551172</v>
+        <v>277.6959718698396</v>
       </c>
     </row>
     <row r="10">
@@ -4992,7 +4992,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
         <v>19.28114311021272</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1366.485848554126</v>
+        <v>959.1889054990377</v>
       </c>
       <c r="C11" t="n">
-        <v>1366.485848554126</v>
+        <v>959.1889054990377</v>
       </c>
       <c r="D11" t="n">
-        <v>1008.220149947375</v>
+        <v>959.1889054990377</v>
       </c>
       <c r="E11" t="n">
-        <v>622.4318973491308</v>
+        <v>573.4006529007934</v>
       </c>
       <c r="F11" t="n">
-        <v>211.4459925595233</v>
+        <v>162.4147481111858</v>
       </c>
       <c r="G11" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H11" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I11" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J11" t="n">
         <v>115.2290882856225</v>
       </c>
       <c r="K11" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953283</v>
       </c>
       <c r="L11" t="n">
-        <v>683.321988080341</v>
+        <v>683.3219880803408</v>
       </c>
       <c r="M11" t="n">
         <v>1075.883192613821</v>
@@ -5056,10 +5056,10 @@
         <v>1460.164450300943</v>
       </c>
       <c r="O11" t="n">
-        <v>1777.842707170708</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P11" t="n">
-        <v>2011.299366755287</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q11" t="n">
         <v>2109.393835800051</v>
@@ -5080,13 +5080,13 @@
         <v>2109.393835800051</v>
       </c>
       <c r="W11" t="n">
-        <v>1756.625180529937</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="X11" t="n">
-        <v>1756.625180529937</v>
+        <v>1735.928077538971</v>
       </c>
       <c r="Y11" t="n">
-        <v>1366.485848554126</v>
+        <v>1345.788745563159</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>671.3473286369498</v>
+        <v>779.4442855700463</v>
       </c>
       <c r="C12" t="n">
-        <v>496.8942993558228</v>
+        <v>604.9912562889193</v>
       </c>
       <c r="D12" t="n">
-        <v>347.9598896945715</v>
+        <v>456.0568466276681</v>
       </c>
       <c r="E12" t="n">
-        <v>188.7224346891161</v>
+        <v>296.8193916222125</v>
       </c>
       <c r="F12" t="n">
-        <v>42.18787671600103</v>
+        <v>150.2848336490975</v>
       </c>
       <c r="G12" t="n">
-        <v>42.18787671600103</v>
+        <v>150.2848336490975</v>
       </c>
       <c r="H12" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I12" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J12" t="n">
-        <v>42.18787671600103</v>
+        <v>91.99734226147163</v>
       </c>
       <c r="K12" t="n">
-        <v>253.9410299829671</v>
+        <v>299.8532106153138</v>
       </c>
       <c r="L12" t="n">
-        <v>600.0736727994084</v>
+        <v>645.9858534317551</v>
       </c>
       <c r="M12" t="n">
-        <v>1055.973362584464</v>
+        <v>966.3211729614569</v>
       </c>
       <c r="N12" t="n">
-        <v>1539.646373973722</v>
+        <v>1310.841828599075</v>
       </c>
       <c r="O12" t="n">
-        <v>1915.697007951092</v>
+        <v>1686.892462576445</v>
       </c>
       <c r="P12" t="n">
-        <v>2109.393835800051</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q12" t="n">
         <v>2109.393835800051</v>
@@ -5147,25 +5147,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S12" t="n">
-        <v>1946.116217237204</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T12" t="n">
-        <v>1946.116217237204</v>
+        <v>1912.633253740523</v>
       </c>
       <c r="U12" t="n">
-        <v>1744.563929587449</v>
+        <v>1684.445549500477</v>
       </c>
       <c r="V12" t="n">
-        <v>1509.411821355706</v>
+        <v>1449.293441268735</v>
       </c>
       <c r="W12" t="n">
-        <v>1255.174464627504</v>
+        <v>1195.056084540533</v>
       </c>
       <c r="X12" t="n">
-        <v>1047.322964421972</v>
+        <v>987.2045843350002</v>
       </c>
       <c r="Y12" t="n">
-        <v>839.5626656570178</v>
+        <v>779.4442855700463</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>521.3315464012336</v>
+        <v>354.6757190764189</v>
       </c>
       <c r="C13" t="n">
-        <v>521.3315464012336</v>
+        <v>354.6757190764189</v>
       </c>
       <c r="D13" t="n">
-        <v>371.2149069888978</v>
+        <v>354.6757190764189</v>
       </c>
       <c r="E13" t="n">
-        <v>371.2149069888978</v>
+        <v>354.6757190764189</v>
       </c>
       <c r="F13" t="n">
-        <v>371.2149069888978</v>
+        <v>354.6757190764189</v>
       </c>
       <c r="G13" t="n">
-        <v>201.9847075371443</v>
+        <v>185.4455196246654</v>
       </c>
       <c r="H13" t="n">
-        <v>42.18787671600103</v>
+        <v>185.4455196246654</v>
       </c>
       <c r="I13" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J13" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25456008701802</v>
+        <v>72.25456008701798</v>
       </c>
       <c r="L13" t="n">
-        <v>166.2559978081031</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M13" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053805</v>
       </c>
       <c r="N13" t="n">
-        <v>388.0878564503603</v>
+        <v>388.0878564503602</v>
       </c>
       <c r="O13" t="n">
-        <v>475.8277896871618</v>
+        <v>475.8277896871617</v>
       </c>
       <c r="P13" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Q13" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="R13" t="n">
-        <v>527.3837778842139</v>
+        <v>368.8775339168959</v>
       </c>
       <c r="S13" t="n">
-        <v>527.3837778842139</v>
+        <v>368.8775339168959</v>
       </c>
       <c r="T13" t="n">
-        <v>521.3315464012336</v>
+        <v>354.6757190764189</v>
       </c>
       <c r="U13" t="n">
-        <v>521.3315464012336</v>
+        <v>354.6757190764189</v>
       </c>
       <c r="V13" t="n">
-        <v>521.3315464012336</v>
+        <v>354.6757190764189</v>
       </c>
       <c r="W13" t="n">
-        <v>521.3315464012336</v>
+        <v>354.6757190764189</v>
       </c>
       <c r="X13" t="n">
-        <v>521.3315464012336</v>
+        <v>354.6757190764189</v>
       </c>
       <c r="Y13" t="n">
-        <v>521.3315464012336</v>
+        <v>354.6757190764189</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1144.772707762214</v>
+        <v>1162.276315963417</v>
       </c>
       <c r="C14" t="n">
-        <v>1144.772707762214</v>
+        <v>1162.276315963417</v>
       </c>
       <c r="D14" t="n">
-        <v>793.1203095284093</v>
+        <v>1044.919132607979</v>
       </c>
       <c r="E14" t="n">
-        <v>793.1203095284093</v>
+        <v>1044.919132607979</v>
       </c>
       <c r="F14" t="n">
-        <v>793.1203095284093</v>
+        <v>633.9332278183715</v>
       </c>
       <c r="G14" t="n">
-        <v>374.642865954865</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="H14" t="n">
-        <v>42.18787671600103</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="I14" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J14" t="n">
-        <v>115.2290882856225</v>
+        <v>115.2290882856226</v>
       </c>
       <c r="K14" t="n">
         <v>345.4437346953284</v>
       </c>
       <c r="L14" t="n">
-        <v>683.321988080341</v>
+        <v>683.3219880803408</v>
       </c>
       <c r="M14" t="n">
         <v>1075.883192613821</v>
@@ -5293,10 +5293,10 @@
         <v>1460.164450300943</v>
       </c>
       <c r="O14" t="n">
-        <v>1777.842707170708</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P14" t="n">
-        <v>2011.299366755287</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q14" t="n">
         <v>2109.393835800051</v>
@@ -5305,25 +5305,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S14" t="n">
-        <v>1921.511879802148</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T14" t="n">
-        <v>1921.511879802148</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="U14" t="n">
-        <v>1921.511879802148</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="V14" t="n">
-        <v>1921.511879802148</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="W14" t="n">
-        <v>1921.511879802148</v>
+        <v>1535.742074224496</v>
       </c>
       <c r="X14" t="n">
-        <v>1921.511879802148</v>
+        <v>1162.276315963417</v>
       </c>
       <c r="Y14" t="n">
-        <v>1531.372547826336</v>
+        <v>1162.276315963417</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>989.1338413064683</v>
+        <v>527.5614701048919</v>
       </c>
       <c r="C15" t="n">
-        <v>814.6808120253413</v>
+        <v>527.5614701048919</v>
       </c>
       <c r="D15" t="n">
-        <v>665.74640236409</v>
+        <v>527.5614701048919</v>
       </c>
       <c r="E15" t="n">
-        <v>506.5089473586346</v>
+        <v>368.3240150994363</v>
       </c>
       <c r="F15" t="n">
-        <v>359.9743893855196</v>
+        <v>221.7894571263213</v>
       </c>
       <c r="G15" t="n">
         <v>221.7894571263213</v>
@@ -5354,22 +5354,22 @@
         <v>113.6925001932248</v>
       </c>
       <c r="I15" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J15" t="n">
-        <v>42.18787671600103</v>
+        <v>91.99734226147163</v>
       </c>
       <c r="K15" t="n">
-        <v>253.9410299829671</v>
+        <v>287.998074757082</v>
       </c>
       <c r="L15" t="n">
-        <v>600.0736727994084</v>
+        <v>634.1307175735233</v>
       </c>
       <c r="M15" t="n">
-        <v>1055.973362584464</v>
+        <v>954.4660371032251</v>
       </c>
       <c r="N15" t="n">
-        <v>1400.494018222082</v>
+        <v>1438.139048492483</v>
       </c>
       <c r="O15" t="n">
         <v>1686.892462576445</v>
@@ -5381,28 +5381,28 @@
         <v>2109.393835800051</v>
       </c>
       <c r="R15" t="n">
-        <v>2042.117567525232</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S15" t="n">
-        <v>1878.839948962385</v>
+        <v>1946.116217237204</v>
       </c>
       <c r="T15" t="n">
-        <v>1678.853686831559</v>
+        <v>1828.965775295437</v>
       </c>
       <c r="U15" t="n">
-        <v>1678.853686831559</v>
+        <v>1600.778071055391</v>
       </c>
       <c r="V15" t="n">
-        <v>1678.853686831559</v>
+        <v>1365.625962823648</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.960977297023</v>
+        <v>1111.388606095447</v>
       </c>
       <c r="X15" t="n">
-        <v>1365.10947709149</v>
+        <v>903.5371058899138</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.349178326536</v>
+        <v>695.77680712496</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="C16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="D16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="E16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="F16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701802</v>
+        <v>72.25456008701798</v>
       </c>
       <c r="L16" t="n">
-        <v>166.2559978081031</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M16" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053805</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0878564503603</v>
+        <v>388.0878564503602</v>
       </c>
       <c r="O16" t="n">
-        <v>475.8277896871618</v>
+        <v>475.8277896871617</v>
       </c>
       <c r="P16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Q16" t="n">
-        <v>527.3837778842139</v>
+        <v>478.6740683752733</v>
       </c>
       <c r="R16" t="n">
-        <v>527.3837778842139</v>
+        <v>320.1678244079554</v>
       </c>
       <c r="S16" t="n">
-        <v>331.3740542899832</v>
+        <v>320.1678244079554</v>
       </c>
       <c r="T16" t="n">
-        <v>331.3740542899832</v>
+        <v>91.87520417346258</v>
       </c>
       <c r="U16" t="n">
-        <v>42.18787671600103</v>
+        <v>91.87520417346258</v>
       </c>
       <c r="V16" t="n">
-        <v>42.18787671600103</v>
+        <v>91.87520417346258</v>
       </c>
       <c r="W16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="X16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="Y16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1257.439477677397</v>
+        <v>1520.348525075571</v>
       </c>
       <c r="C17" t="n">
-        <v>1257.439477677397</v>
+        <v>1151.38600813516</v>
       </c>
       <c r="D17" t="n">
-        <v>1257.439477677397</v>
+        <v>793.1203095284093</v>
       </c>
       <c r="E17" t="n">
-        <v>871.6512250791529</v>
+        <v>793.1203095284093</v>
       </c>
       <c r="F17" t="n">
-        <v>460.6653202895453</v>
+        <v>793.1203095284093</v>
       </c>
       <c r="G17" t="n">
-        <v>42.18787671600103</v>
+        <v>374.642865954865</v>
       </c>
       <c r="H17" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I17" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J17" t="n">
-        <v>115.2290882856225</v>
+        <v>115.2290882856226</v>
       </c>
       <c r="K17" t="n">
         <v>345.4437346953284</v>
       </c>
       <c r="L17" t="n">
-        <v>683.321988080341</v>
+        <v>683.3219880803408</v>
       </c>
       <c r="M17" t="n">
         <v>1075.883192613821</v>
@@ -5530,37 +5530,37 @@
         <v>1460.164450300943</v>
       </c>
       <c r="O17" t="n">
-        <v>1777.842707170708</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P17" t="n">
-        <v>2011.299366755287</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q17" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R17" t="n">
-        <v>2022.100492129412</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S17" t="n">
-        <v>2022.100492129412</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T17" t="n">
-        <v>2022.100492129412</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="U17" t="n">
-        <v>2022.100492129412</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="V17" t="n">
-        <v>2021.044567914289</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="W17" t="n">
-        <v>2021.044567914289</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="X17" t="n">
-        <v>1647.578809653209</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Y17" t="n">
-        <v>1257.439477677397</v>
+        <v>1719.254503824239</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>881.0368843733719</v>
+        <v>779.4442855700463</v>
       </c>
       <c r="C18" t="n">
-        <v>706.5838550922449</v>
+        <v>604.9912562889193</v>
       </c>
       <c r="D18" t="n">
-        <v>557.6494454309936</v>
+        <v>456.0568466276681</v>
       </c>
       <c r="E18" t="n">
-        <v>398.4119904255381</v>
+        <v>296.8193916222125</v>
       </c>
       <c r="F18" t="n">
-        <v>251.8774324524231</v>
+        <v>150.2848336490975</v>
       </c>
       <c r="G18" t="n">
-        <v>113.6925001932248</v>
+        <v>150.2848336490975</v>
       </c>
       <c r="H18" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I18" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J18" t="n">
-        <v>91.99734226147166</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K18" t="n">
-        <v>217.3549023193091</v>
+        <v>167.5454367738384</v>
       </c>
       <c r="L18" t="n">
-        <v>508.959781349409</v>
+        <v>513.6780795902797</v>
       </c>
       <c r="M18" t="n">
-        <v>964.8594711344645</v>
+        <v>969.5777693753352</v>
       </c>
       <c r="N18" t="n">
-        <v>1448.532482523722</v>
+        <v>1453.250780764593</v>
       </c>
       <c r="O18" t="n">
-        <v>1824.583116501092</v>
+        <v>1829.301414741963</v>
       </c>
       <c r="P18" t="n">
         <v>2109.393835800051</v>
@@ -5621,25 +5621,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S18" t="n">
-        <v>2109.393835800051</v>
+        <v>1946.116217237204</v>
       </c>
       <c r="T18" t="n">
-        <v>1909.407573669226</v>
+        <v>1872.997090555059</v>
       </c>
       <c r="U18" t="n">
-        <v>1681.21986942918</v>
+        <v>1644.809386315012</v>
       </c>
       <c r="V18" t="n">
-        <v>1511.341078327174</v>
+        <v>1409.65727808327</v>
       </c>
       <c r="W18" t="n">
-        <v>1257.103721598973</v>
+        <v>1155.419921355068</v>
       </c>
       <c r="X18" t="n">
-        <v>1049.25222139344</v>
+        <v>1155.419921355068</v>
       </c>
       <c r="Y18" t="n">
-        <v>1049.25222139344</v>
+        <v>947.6596225901144</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>482.4521065349114</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="C19" t="n">
-        <v>482.4521065349114</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="D19" t="n">
-        <v>332.3354671225757</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="E19" t="n">
-        <v>332.3354671225757</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="F19" t="n">
-        <v>185.4455196246654</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G19" t="n">
-        <v>185.4455196246654</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H19" t="n">
-        <v>185.4455196246654</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701802</v>
+        <v>72.25456008701798</v>
       </c>
       <c r="L19" t="n">
-        <v>166.2559978081031</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M19" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053805</v>
       </c>
       <c r="N19" t="n">
-        <v>388.0878564503603</v>
+        <v>388.0878564503602</v>
       </c>
       <c r="O19" t="n">
-        <v>475.8277896871618</v>
+        <v>475.8277896871617</v>
       </c>
       <c r="P19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Q19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="R19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="S19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="T19" t="n">
-        <v>482.4521065349114</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="U19" t="n">
-        <v>482.4521065349114</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="V19" t="n">
-        <v>482.4521065349114</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="W19" t="n">
-        <v>482.4521065349114</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="X19" t="n">
-        <v>482.4521065349114</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="Y19" t="n">
-        <v>482.4521065349114</v>
+        <v>42.18787671600102</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1332.654663760118</v>
+        <v>1598.879440626315</v>
       </c>
       <c r="C20" t="n">
-        <v>963.6921468197063</v>
+        <v>1229.916923685903</v>
       </c>
       <c r="D20" t="n">
-        <v>963.6921468197063</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="E20" t="n">
-        <v>577.903894221462</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="F20" t="n">
-        <v>166.9179894318544</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="G20" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H20" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I20" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J20" t="n">
         <v>115.2290882856225</v>
       </c>
       <c r="K20" t="n">
-        <v>345.4437346953285</v>
+        <v>345.4437346953284</v>
       </c>
       <c r="L20" t="n">
-        <v>683.321988080341</v>
+        <v>683.3219880803408</v>
       </c>
       <c r="M20" t="n">
         <v>1075.883192613821</v>
@@ -5767,37 +5767,37 @@
         <v>1460.164450300943</v>
       </c>
       <c r="O20" t="n">
-        <v>1777.842707170708</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P20" t="n">
-        <v>2011.299366755287</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q20" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R20" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129411</v>
       </c>
       <c r="S20" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129411</v>
       </c>
       <c r="T20" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129411</v>
       </c>
       <c r="U20" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129411</v>
       </c>
       <c r="V20" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129411</v>
       </c>
       <c r="W20" t="n">
-        <v>2109.393835800051</v>
+        <v>1989.018772602127</v>
       </c>
       <c r="X20" t="n">
-        <v>2109.393835800051</v>
+        <v>1989.018772602127</v>
       </c>
       <c r="Y20" t="n">
-        <v>1719.25450382424</v>
+        <v>1598.879440626315</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>671.3473286369498</v>
+        <v>524.8127706638348</v>
       </c>
       <c r="C21" t="n">
-        <v>496.8942993558228</v>
+        <v>350.3597413827078</v>
       </c>
       <c r="D21" t="n">
-        <v>347.9598896945715</v>
+        <v>201.4253317214565</v>
       </c>
       <c r="E21" t="n">
-        <v>188.7224346891161</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="F21" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G21" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H21" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I21" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J21" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K21" t="n">
         <v>167.5454367738384</v>
       </c>
       <c r="L21" t="n">
-        <v>439.5652228360798</v>
+        <v>397.5085426421875</v>
       </c>
       <c r="M21" t="n">
-        <v>895.4649126211352</v>
+        <v>827.1688172098176</v>
       </c>
       <c r="N21" t="n">
-        <v>1379.137924010393</v>
+        <v>1310.841828599075</v>
       </c>
       <c r="O21" t="n">
-        <v>1755.188557987763</v>
+        <v>1686.892462576445</v>
       </c>
       <c r="P21" t="n">
-        <v>2039.999277286722</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q21" t="n">
         <v>2109.393835800051</v>
@@ -5858,25 +5858,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S21" t="n">
-        <v>1946.116217237204</v>
+        <v>2026.203337985206</v>
       </c>
       <c r="T21" t="n">
-        <v>1746.129955106379</v>
+        <v>1826.21707585438</v>
       </c>
       <c r="U21" t="n">
-        <v>1517.942250866333</v>
+        <v>1598.029371614334</v>
       </c>
       <c r="V21" t="n">
-        <v>1509.411821355706</v>
+        <v>1362.877263382591</v>
       </c>
       <c r="W21" t="n">
-        <v>1255.174464627504</v>
+        <v>1108.63990665439</v>
       </c>
       <c r="X21" t="n">
-        <v>1047.322964421972</v>
+        <v>900.7884064488567</v>
       </c>
       <c r="Y21" t="n">
-        <v>839.5626656570178</v>
+        <v>693.0281076839028</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="C22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="D22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="E22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="F22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K22" t="n">
-        <v>72.25456008701801</v>
+        <v>72.25456008701798</v>
       </c>
       <c r="L22" t="n">
-        <v>166.2559978081031</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M22" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053805</v>
       </c>
       <c r="N22" t="n">
-        <v>388.0878564503603</v>
+        <v>388.0878564503602</v>
       </c>
       <c r="O22" t="n">
-        <v>475.8277896871618</v>
+        <v>475.8277896871617</v>
       </c>
       <c r="P22" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Q22" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="R22" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="S22" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="T22" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="U22" t="n">
-        <v>527.3837778842139</v>
+        <v>238.1976003102315</v>
       </c>
       <c r="V22" t="n">
-        <v>527.3837778842139</v>
+        <v>238.1976003102315</v>
       </c>
       <c r="W22" t="n">
-        <v>237.9666078472533</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="X22" t="n">
-        <v>237.9666078472533</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1701.775251950352</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="C23" t="n">
-        <v>1332.81273500994</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="D23" t="n">
-        <v>974.5470364031896</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E23" t="n">
-        <v>588.7587838049453</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F23" t="n">
-        <v>177.7728790153378</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>177.7728790153378</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H23" t="n">
-        <v>177.7728790153378</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6022,19 +6022,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2478.514423990285</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V23" t="n">
-        <v>2478.514423990285</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W23" t="n">
-        <v>2478.514423990285</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X23" t="n">
-        <v>2478.514423990285</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y23" t="n">
-        <v>2088.375092014473</v>
+        <v>882.8926947117851</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X25" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1494.154169929768</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C26" t="n">
-        <v>1125.191652989356</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D26" t="n">
-        <v>766.9259543826058</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E26" t="n">
-        <v>381.1377017843616</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
@@ -6232,7 +6232,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.752638628377</v>
+        <v>2526.08081531887</v>
       </c>
       <c r="V26" t="n">
-        <v>1893.689751284806</v>
+        <v>2526.08081531887</v>
       </c>
       <c r="W26" t="n">
-        <v>1540.921096014692</v>
+        <v>2526.08081531887</v>
       </c>
       <c r="X26" t="n">
-        <v>1494.154169929768</v>
+        <v>2526.08081531887</v>
       </c>
       <c r="Y26" t="n">
-        <v>1494.154169929768</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="27">
@@ -6293,13 +6293,13 @@
         <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
@@ -6308,22 +6308,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6408,22 +6408,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>365.6939024587809</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V28" t="n">
-        <v>365.6939024587809</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>76.27673242182033</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
         <v>53.94298182036445</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1273.280804219765</v>
+        <v>1744.740694543503</v>
       </c>
       <c r="C29" t="n">
-        <v>1273.280804219765</v>
+        <v>1375.778177603092</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>1017.512478996341</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>1017.512478996341</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>606.5265742067336</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>188.5627661049205</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6490,25 +6490,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U29" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V29" t="n">
-        <v>2423.485734520778</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W29" t="n">
-        <v>2423.485734520778</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X29" t="n">
-        <v>2050.019976259699</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y29" t="n">
-        <v>1659.880644283887</v>
+        <v>1744.740694543503</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
         <v>2525.076107152626</v>
@@ -6657,7 +6657,7 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W31" t="n">
         <v>53.94298182036445</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1268.68094731003</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C32" t="n">
-        <v>1268.68094731003</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D32" t="n">
-        <v>1268.68094731003</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6703,10 +6703,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2418.885877611043</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>2418.885877611043</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X32" t="n">
-        <v>2045.420119349963</v>
+        <v>2351.43802427856</v>
       </c>
       <c r="Y32" t="n">
-        <v>1655.280787374151</v>
+        <v>2351.43802427856</v>
       </c>
     </row>
     <row r="33">
@@ -6761,10 +6761,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
         <v>359.3385232961342</v>
@@ -6773,31 +6773,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2627.754532504893</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.50760798847037</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C34" t="n">
-        <v>77.50760798847037</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D34" t="n">
-        <v>77.50760798847037</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E34" t="n">
-        <v>77.50760798847037</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F34" t="n">
-        <v>77.50760798847037</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H34" t="n">
         <v>53.94298182036445</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>259.1560728187101</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W34" t="n">
-        <v>259.1560728187101</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X34" t="n">
-        <v>259.1560728187101</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y34" t="n">
-        <v>259.1560728187101</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1791.109440255352</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C35" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D35" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757142</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.54400078133</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>113.6371076753678</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598704</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417901</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517452</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537796</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7134,13 +7134,13 @@
         <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247702</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.680947310029</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.680947310029</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533141</v>
@@ -7180,7 +7180,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548715</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287635</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.515311311824</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>546.4805193761945</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C40" t="n">
-        <v>377.5443364482876</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="D40" t="n">
-        <v>227.4276970359519</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036444</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7374,10 +7374,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064342</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>1647.620145934678</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>1278.657628994267</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>2424.359317974612</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>2034.2199859988</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7602,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W43" t="n">
-        <v>502.7251118619119</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X43" t="n">
-        <v>274.7355609638946</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1309.714918859355</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C44" t="n">
-        <v>940.7524019189434</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D44" t="n">
-        <v>582.486703312193</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E44" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F44" t="n">
         <v>471.9067899221776</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.483574129469</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W44" t="n">
-        <v>1309.714918859355</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X44" t="n">
-        <v>1309.714918859355</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y44" t="n">
-        <v>1309.714918859355</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>222.8791647482714</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
         <v>53.94298182036444</v>
@@ -7830,28 +7830,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>579.9823256406182</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="U46" t="n">
-        <v>579.9823256406182</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="V46" t="n">
-        <v>579.9823256406182</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="W46" t="n">
-        <v>579.9823256406182</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X46" t="n">
-        <v>579.9823256406182</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y46" t="n">
-        <v>404.5276295785111</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>174.6270615612551</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>75.77844388033749</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.99581912509467</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>251.4045252050812</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,10 +22555,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22594,22 +22594,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>257.4082506688596</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22637,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>115.926505328586</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>71.15759312141155</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22682,7 +22682,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,10 +22792,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>14.75355855760483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,25 +22913,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.1193196316416</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22998,10 +22998,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180.4391552345834</v>
+        <v>162.5207159210556</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,10 +23032,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23074,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,16 +23102,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>64.32288408092391</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>118.371726462903</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,19 +23150,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23232,10 +23232,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>246.7271344527218</v>
+        <v>295.2680664565759</v>
       </c>
       <c r="H11" t="n">
         <v>329.1304393464753</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.42041023393328</v>
+        <v>86.42041023393332</v>
       </c>
       <c r="S11" t="n">
         <v>186.0031364379248</v>
@@ -23320,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>136.8030829366063</v>
       </c>
       <c r="H12" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>70.78957724245151</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.60350559207137</v>
+        <v>66.60350559207139</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>161.6448423772186</v>
       </c>
       <c r="T12" t="n">
-        <v>197.9863995095175</v>
+        <v>3.193423270585072</v>
       </c>
       <c r="U12" t="n">
-        <v>26.36906242438741</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,13 +23433,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I13" t="n">
-        <v>141.8250664795777</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.32628970022416</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385099</v>
       </c>
       <c r="R13" t="n">
-        <v>156.9211815276446</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>216.1206161765721</v>
       </c>
       <c r="T13" t="n">
-        <v>220.0179848639974</v>
+        <v>211.9498973400756</v>
       </c>
       <c r="U13" t="n">
         <v>286.2943157982424</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>6.54716736921614</v>
+        <v>238.4994300987997</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I14" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.42041023393328</v>
+        <v>86.42041023393332</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T14" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2648474376504</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,10 +23576,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>66.60350559207139</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>82.00746198716816</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9058271976456</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>146.8612007217288</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J16" t="n">
-        <v>61.32628970022416</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385097</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>156.9211815276446</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>22.07098981828372</v>
+        <v>216.1206161765721</v>
       </c>
       <c r="T16" t="n">
-        <v>226.0096940321479</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>237.3325441537041</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>185.8169227022994</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>171.5352284535379</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>86.42041023393332</v>
       </c>
       <c r="S17" t="n">
         <v>186.0031364379248</v>
@@ -23791,13 +23791,13 @@
         <v>251.2648474376504</v>
       </c>
       <c r="V17" t="n">
-        <v>326.7068934971631</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H18" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.60350559207137</v>
+        <v>66.60350559207139</v>
       </c>
       <c r="S18" t="n">
-        <v>161.6448423772186</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>125.5984640941935</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>64.62058395843997</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.537897457236</v>
@@ -23910,10 +23910,10 @@
         <v>158.1988625129318</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J19" t="n">
-        <v>61.32628970022416</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385099</v>
       </c>
       <c r="R19" t="n">
         <v>156.9211815276446</v>
@@ -23943,16 +23943,16 @@
         <v>216.1206161765721</v>
       </c>
       <c r="T19" t="n">
-        <v>181.5273393963384</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2943157982424</v>
+        <v>92.47337197830285</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>290.809857549114</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>329.1304393464753</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.4204102339333</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>186.0031364379248</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>316.4900663854015</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24059,7 +24059,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.8030829366063</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.60350559207137</v>
+        <v>66.6035055920714</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>79.28624954052165</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>224.3554619339049</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J22" t="n">
-        <v>61.32628970022416</v>
+        <v>61.32628970022418</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.22261241385097</v>
+        <v>48.222612413851</v>
       </c>
       <c r="R22" t="n">
         <v>156.9211815276446</v>
@@ -24183,19 +24183,19 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2943157982424</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>92.47337197830285</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>24.76370953215502</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>29.33971802183768</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24262,16 +24262,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>104.5209220446456</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24420,19 +24420,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>63.37316471551392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>136.3449771407427</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>323.4318438543944</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,28 +24645,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>203.5992422935958</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>350.1291832800448</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>190.6491863226467</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24858,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>157.4983735401877</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24976,16 +24976,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>52.27167719702715</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>81.95554718101511</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>143.9808223526261</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>61.53161905815483</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.7236267427615</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25174,7 +25174,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>204.6377016189649</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>144.2707130727118</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>128.238790019117</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>120.1051426060689</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>79.12559043031209</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>89.79231049789979</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>154.1476279401067</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>11.85718952785672</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25842,19 +25842,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>144.2707130727118</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>272.4562558161466</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26070,13 +26070,13 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>135.9689721019666</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.88450425060873</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>415401.6813283312</v>
+        <v>415401.6813283313</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>415401.6813283313</v>
+        <v>415401.6813283312</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>619571.6902156781</v>
+        <v>619571.6902156778</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>619571.690215678</v>
+        <v>619571.6902156777</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>619571.6902156778</v>
+        <v>619571.690215678</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>619571.690215678</v>
+        <v>619571.6902156777</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>722881.5250393942</v>
+        <v>722881.525039394</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>722881.525039394</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>722881.525039394</v>
+        <v>722881.5250393943</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>722881.5250393943</v>
+        <v>722881.5250393942</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>166160.6725313323</v>
+      </c>
+      <c r="C2" t="n">
         <v>166160.6725313324</v>
-      </c>
-      <c r="C2" t="n">
-        <v>166160.6725313323</v>
       </c>
       <c r="D2" t="n">
         <v>166160.6725313324</v>
@@ -26325,16 +26325,16 @@
         <v>247828.6760862711</v>
       </c>
       <c r="F2" t="n">
-        <v>247828.6760862711</v>
+        <v>247828.6760862712</v>
       </c>
       <c r="G2" t="n">
         <v>247828.6760862711</v>
       </c>
       <c r="H2" t="n">
-        <v>247828.6760862711</v>
+        <v>247828.676086271</v>
       </c>
       <c r="I2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157573</v>
       </c>
       <c r="J2" t="n">
         <v>289152.6100157574</v>
@@ -26343,7 +26343,7 @@
         <v>289152.6100157576</v>
       </c>
       <c r="L2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="M2" t="n">
         <v>289152.6100157574</v>
@@ -26352,10 +26352,10 @@
         <v>289152.6100157574</v>
       </c>
       <c r="O2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157573</v>
       </c>
       <c r="P2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157573</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>287351.7100134256</v>
+        <v>287351.7100134255</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.32519718148824e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134288.7015116921</v>
+        <v>134288.7015116922</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.62051871084</v>
+        <v>71355.62051871083</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>399.7633767216535</v>
+        <v>399.7633767216533</v>
       </c>
       <c r="F4" t="n">
-        <v>399.7633767216534</v>
+        <v>399.7633767216533</v>
       </c>
       <c r="G4" t="n">
-        <v>399.7633767216534</v>
+        <v>399.7633767216533</v>
       </c>
       <c r="H4" t="n">
-        <v>399.7633767216534</v>
+        <v>399.7633767216533</v>
       </c>
       <c r="I4" t="n">
         <v>513.1084990597035</v>
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>37540.13459730639</v>
+        <v>37540.13459730638</v>
       </c>
       <c r="F5" t="n">
-        <v>37540.13459730639</v>
+        <v>37540.13459730638</v>
       </c>
       <c r="G5" t="n">
-        <v>37540.13459730639</v>
+        <v>37540.13459730638</v>
       </c>
       <c r="H5" t="n">
-        <v>37540.13459730639</v>
+        <v>37540.13459730638</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24712.42911827852</v>
+        <v>35708.63867631488</v>
       </c>
       <c r="C6" t="n">
-        <v>105481.8606498262</v>
+        <v>116478.0702078627</v>
       </c>
       <c r="D6" t="n">
-        <v>105481.8606498262</v>
+        <v>116478.0702078627</v>
       </c>
       <c r="E6" t="n">
-        <v>-85597.54234347613</v>
+        <v>-78276.39294541176</v>
       </c>
       <c r="F6" t="n">
-        <v>201754.1676699496</v>
+        <v>209075.3170680138</v>
       </c>
       <c r="G6" t="n">
-        <v>201754.1676699495</v>
+        <v>209075.3170680137</v>
       </c>
       <c r="H6" t="n">
-        <v>201754.1676699496</v>
+        <v>209075.3170680137</v>
       </c>
       <c r="I6" t="n">
-        <v>99050.90819577695</v>
+        <v>104512.480567014</v>
       </c>
       <c r="J6" t="n">
-        <v>170279.6671083628</v>
+        <v>175741.2394796001</v>
       </c>
       <c r="K6" t="n">
-        <v>233339.6097074693</v>
+        <v>238801.1820787066</v>
       </c>
       <c r="L6" t="n">
-        <v>233339.6097074693</v>
+        <v>238801.1820787064</v>
       </c>
       <c r="M6" t="n">
-        <v>161983.9891887582</v>
+        <v>167445.5615599955</v>
       </c>
       <c r="N6" t="n">
-        <v>233339.6097074691</v>
+        <v>238801.1820787063</v>
       </c>
       <c r="O6" t="n">
-        <v>233339.609707469</v>
+        <v>238801.1820787063</v>
       </c>
       <c r="P6" t="n">
-        <v>233339.609707469</v>
+        <v>238801.1820787062</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="F3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="G3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="H3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.25450885989</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,19 +26798,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.3484589500127</v>
       </c>
       <c r="F4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.3484589500127</v>
       </c>
       <c r="G4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.3484589500127</v>
       </c>
       <c r="H4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.3484589500127</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26822,13 +26822,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="N4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="O4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="O4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545555</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4891553571964</v>
+        <v>126.4891553571966</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.3341700723538</v>
+        <v>286.3341700723537</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.213199256248332e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>146.9388138045427</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723538</v>
+        <v>286.3341700723537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.213199256248332e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H11" t="n">
-        <v>10.34436276929186</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I11" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686799</v>
       </c>
       <c r="J11" t="n">
-        <v>85.72829094008888</v>
+        <v>85.72829094008883</v>
       </c>
       <c r="K11" t="n">
-        <v>128.4844853523066</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L11" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M11" t="n">
-        <v>177.3591689601777</v>
+        <v>177.3591689601776</v>
       </c>
       <c r="N11" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372556</v>
       </c>
       <c r="O11" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102183</v>
       </c>
       <c r="P11" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R11" t="n">
-        <v>63.4487077072164</v>
+        <v>63.44870770721636</v>
       </c>
       <c r="S11" t="n">
-        <v>23.0169331483206</v>
+        <v>23.01693314832059</v>
       </c>
       <c r="T11" t="n">
-        <v>4.421574321745403</v>
+        <v>4.421574321745401</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.08080547018609521</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5404342266042922</v>
+        <v>0.5404342266042919</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730928</v>
+        <v>5.219456872730924</v>
       </c>
       <c r="I12" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896356</v>
       </c>
       <c r="J12" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632917</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881678</v>
+        <v>83.33162454141896</v>
       </c>
       <c r="L12" t="n">
-        <v>117.3429666142346</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M12" t="n">
-        <v>136.9337073286401</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>140.5579351026663</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P12" t="n">
-        <v>11.16500023798866</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.98595496092685</v>
+        <v>68.9859549609268</v>
       </c>
       <c r="R12" t="n">
-        <v>33.55432856057176</v>
+        <v>33.55432856057175</v>
       </c>
       <c r="S12" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T12" t="n">
-        <v>2.178329185304142</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.03555488332922974</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227528</v>
+        <v>0.4530819012227525</v>
       </c>
       <c r="H13" t="n">
-        <v>4.02830999450775</v>
+        <v>4.028309994507748</v>
       </c>
       <c r="I13" t="n">
-        <v>13.62540844768061</v>
+        <v>13.6254084476806</v>
       </c>
       <c r="J13" t="n">
-        <v>32.03289041644862</v>
+        <v>32.0328904164486</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933436</v>
+        <v>52.63987906933433</v>
       </c>
       <c r="L13" t="n">
-        <v>67.36092193269909</v>
+        <v>67.36092193269906</v>
       </c>
       <c r="M13" t="n">
-        <v>71.02264747985386</v>
+        <v>71.02264747985382</v>
       </c>
       <c r="N13" t="n">
-        <v>69.33388766620547</v>
+        <v>69.33388766620544</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464875</v>
+        <v>64.04106727464871</v>
       </c>
       <c r="P13" t="n">
-        <v>54.79819648970455</v>
+        <v>54.79819648970452</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.93943083784342</v>
+        <v>37.9394308378434</v>
       </c>
       <c r="R13" t="n">
-        <v>20.37220984952486</v>
+        <v>20.37220984952485</v>
       </c>
       <c r="S13" t="n">
-        <v>7.895981860400152</v>
+        <v>7.895981860400147</v>
       </c>
       <c r="T13" t="n">
-        <v>1.935895396133579</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.0247135582485138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H14" t="n">
-        <v>10.34436276929186</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I14" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686799</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008888</v>
+        <v>85.72829094008883</v>
       </c>
       <c r="K14" t="n">
-        <v>128.4844853523066</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L14" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M14" t="n">
-        <v>177.3591689601777</v>
+        <v>177.3591689601776</v>
       </c>
       <c r="N14" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372556</v>
       </c>
       <c r="O14" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102183</v>
       </c>
       <c r="P14" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R14" t="n">
-        <v>63.4487077072164</v>
+        <v>63.44870770721636</v>
       </c>
       <c r="S14" t="n">
-        <v>23.0169331483206</v>
+        <v>23.01693314832059</v>
       </c>
       <c r="T14" t="n">
-        <v>4.421574321745403</v>
+        <v>4.421574321745401</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.08080547018609521</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5404342266042922</v>
+        <v>0.5404342266042919</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730928</v>
+        <v>5.219456872730924</v>
       </c>
       <c r="I15" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896356</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>51.05918278632917</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881678</v>
+        <v>71.35673983613427</v>
       </c>
       <c r="L15" t="n">
-        <v>117.3429666142346</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M15" t="n">
-        <v>136.9337073286401</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O15" t="n">
-        <v>38.02528310141508</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>103.199234025867</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.98595496092685</v>
+        <v>68.9859549609268</v>
       </c>
       <c r="R15" t="n">
-        <v>33.55432856057176</v>
+        <v>33.55432856057175</v>
       </c>
       <c r="S15" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T15" t="n">
-        <v>2.178329185304142</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.03555488332922974</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227528</v>
+        <v>0.4530819012227525</v>
       </c>
       <c r="H16" t="n">
-        <v>4.02830999450775</v>
+        <v>4.028309994507748</v>
       </c>
       <c r="I16" t="n">
-        <v>13.62540844768061</v>
+        <v>13.6254084476806</v>
       </c>
       <c r="J16" t="n">
-        <v>32.03289041644862</v>
+        <v>32.0328904164486</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933436</v>
+        <v>52.63987906933433</v>
       </c>
       <c r="L16" t="n">
-        <v>67.36092193269909</v>
+        <v>67.36092193269906</v>
       </c>
       <c r="M16" t="n">
-        <v>71.02264747985386</v>
+        <v>71.02264747985382</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620547</v>
+        <v>69.33388766620544</v>
       </c>
       <c r="O16" t="n">
-        <v>64.04106727464875</v>
+        <v>64.04106727464871</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970455</v>
+        <v>54.79819648970452</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.93943083784342</v>
+        <v>37.9394308378434</v>
       </c>
       <c r="R16" t="n">
-        <v>20.37220984952486</v>
+        <v>20.37220984952485</v>
       </c>
       <c r="S16" t="n">
-        <v>7.895981860400152</v>
+        <v>7.895981860400147</v>
       </c>
       <c r="T16" t="n">
-        <v>1.935895396133579</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.0247135582485138</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H17" t="n">
-        <v>10.34436276929186</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I17" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686799</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008888</v>
+        <v>85.72829094008883</v>
       </c>
       <c r="K17" t="n">
-        <v>128.4844853523066</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L17" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M17" t="n">
-        <v>177.3591689601777</v>
+        <v>177.3591689601776</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372556</v>
       </c>
       <c r="O17" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102183</v>
       </c>
       <c r="P17" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R17" t="n">
-        <v>63.4487077072164</v>
+        <v>63.44870770721636</v>
       </c>
       <c r="S17" t="n">
-        <v>23.0169331483206</v>
+        <v>23.01693314832059</v>
       </c>
       <c r="T17" t="n">
-        <v>4.421574321745403</v>
+        <v>4.421574321745401</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.08080547018609521</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5404342266042922</v>
+        <v>0.5404342266042919</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730928</v>
+        <v>5.219456872730924</v>
       </c>
       <c r="I18" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896356</v>
       </c>
       <c r="J18" t="n">
-        <v>51.0591827863292</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>62.26441733510177</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M18" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N18" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O18" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P18" t="n">
-        <v>103.199234025867</v>
+        <v>98.43327620680532</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>33.55432856057176</v>
+        <v>33.55432856057175</v>
       </c>
       <c r="S18" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T18" t="n">
-        <v>2.178329185304142</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.03555488332922974</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227528</v>
+        <v>0.4530819012227525</v>
       </c>
       <c r="H19" t="n">
-        <v>4.02830999450775</v>
+        <v>4.028309994507748</v>
       </c>
       <c r="I19" t="n">
-        <v>13.62540844768061</v>
+        <v>13.6254084476806</v>
       </c>
       <c r="J19" t="n">
-        <v>32.03289041644862</v>
+        <v>32.0328904164486</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933436</v>
+        <v>52.63987906933433</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269909</v>
+        <v>67.36092193269906</v>
       </c>
       <c r="M19" t="n">
-        <v>71.02264747985386</v>
+        <v>71.02264747985382</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620547</v>
+        <v>69.33388766620544</v>
       </c>
       <c r="O19" t="n">
-        <v>64.04106727464875</v>
+        <v>64.04106727464871</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79819648970455</v>
+        <v>54.79819648970452</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.93943083784342</v>
+        <v>37.9394308378434</v>
       </c>
       <c r="R19" t="n">
-        <v>20.37220984952486</v>
+        <v>20.37220984952485</v>
       </c>
       <c r="S19" t="n">
-        <v>7.895981860400152</v>
+        <v>7.895981860400147</v>
       </c>
       <c r="T19" t="n">
-        <v>1.935895396133579</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.0247135582485138</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H20" t="n">
-        <v>10.34436276929186</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I20" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686799</v>
       </c>
       <c r="J20" t="n">
-        <v>85.72829094008887</v>
+        <v>85.72829094008883</v>
       </c>
       <c r="K20" t="n">
-        <v>128.4844853523066</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L20" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M20" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601775</v>
       </c>
       <c r="N20" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372556</v>
       </c>
       <c r="O20" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102183</v>
       </c>
       <c r="P20" t="n">
-        <v>145.249095244978</v>
+        <v>145.2490952449779</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721636</v>
       </c>
       <c r="S20" t="n">
-        <v>23.0169331483206</v>
+        <v>23.01693314832059</v>
       </c>
       <c r="T20" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745401</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.08080547018609521</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,13 +32542,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5404342266042921</v>
+        <v>0.5404342266042917</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730927</v>
+        <v>5.219456872730924</v>
       </c>
       <c r="I21" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896356</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -32557,34 +32557,34 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>42.48149514534566</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>136.9337073286401</v>
+        <v>110.4292475130588</v>
       </c>
       <c r="N21" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O21" t="n">
-        <v>128.5830503973817</v>
+        <v>128.5830503973816</v>
       </c>
       <c r="P21" t="n">
-        <v>103.199234025867</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>68.98595496092679</v>
       </c>
       <c r="R21" t="n">
-        <v>33.55432856057176</v>
+        <v>33.55432856057174</v>
       </c>
       <c r="S21" t="n">
-        <v>10.03832872661919</v>
+        <v>10.03832872661918</v>
       </c>
       <c r="T21" t="n">
-        <v>2.178329185304142</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.03555488332922974</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227524</v>
       </c>
       <c r="H22" t="n">
-        <v>4.02830999450775</v>
+        <v>4.028309994507747</v>
       </c>
       <c r="I22" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J22" t="n">
-        <v>32.03289041644862</v>
+        <v>32.03289041644859</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933435</v>
+        <v>52.63987906933432</v>
       </c>
       <c r="L22" t="n">
-        <v>67.36092193269909</v>
+        <v>67.36092193269904</v>
       </c>
       <c r="M22" t="n">
-        <v>71.02264747985386</v>
+        <v>71.02264747985382</v>
       </c>
       <c r="N22" t="n">
-        <v>69.33388766620547</v>
+        <v>69.33388766620543</v>
       </c>
       <c r="O22" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464871</v>
       </c>
       <c r="P22" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970451</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.93943083784341</v>
+        <v>37.93943083784339</v>
       </c>
       <c r="R22" t="n">
-        <v>20.37220984952486</v>
+        <v>20.37220984952485</v>
       </c>
       <c r="S22" t="n">
-        <v>7.895981860400151</v>
+        <v>7.895981860400147</v>
       </c>
       <c r="T22" t="n">
-        <v>1.935895396133579</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.0247135582485138</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071296</v>
       </c>
       <c r="M24" t="n">
         <v>205.8702969983122</v>
@@ -32803,7 +32803,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
         <v>155.1528646479577</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
@@ -33028,7 +33028,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
@@ -33046,19 +33046,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33274,28 +33274,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N30" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O30" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>61.04368814949358</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33757,19 +33757,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33994,19 +33994,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
@@ -34231,19 +34231,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34447,7 +34447,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,10 +34465,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>111.7343803072865</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
         <v>50.44659727034981</v>
@@ -34783,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>43.28534947792182</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547637</v>
+        <v>73.77900158547631</v>
       </c>
       <c r="K11" t="n">
-        <v>232.5400468784908</v>
+        <v>232.5400468784907</v>
       </c>
       <c r="L11" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M11" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N11" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O11" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P11" t="n">
         <v>235.8148076611911</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743898</v>
+        <v>99.08532226743891</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>50.31259146007132</v>
       </c>
       <c r="K12" t="n">
-        <v>213.8920740070364</v>
+        <v>209.9554225796386</v>
       </c>
       <c r="L12" t="n">
-        <v>349.6289321378196</v>
+        <v>349.6289321378195</v>
       </c>
       <c r="M12" t="n">
-        <v>460.5047371566217</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>488.5585973628865</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
         <v>379.8491252296668</v>
       </c>
       <c r="P12" t="n">
-        <v>195.6533614635956</v>
+        <v>287.6875952514739</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.3703872434515</v>
+        <v>30.37038724345148</v>
       </c>
       <c r="L13" t="n">
-        <v>94.95094719301522</v>
+        <v>94.9509471930152</v>
       </c>
       <c r="M13" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N13" t="n">
-        <v>113.4660600454341</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O13" t="n">
-        <v>88.62619518868843</v>
+        <v>88.62619518868838</v>
       </c>
       <c r="P13" t="n">
-        <v>52.07675575459804</v>
+        <v>52.076755754598</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547637</v>
+        <v>73.77900158547631</v>
       </c>
       <c r="K14" t="n">
-        <v>232.5400468784908</v>
+        <v>232.5400468784907</v>
       </c>
       <c r="L14" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M14" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N14" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O14" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P14" t="n">
         <v>235.8148076611911</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743898</v>
+        <v>99.08532226743891</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>50.31259146007132</v>
       </c>
       <c r="K15" t="n">
-        <v>213.8920740070364</v>
+        <v>197.9805378743539</v>
       </c>
       <c r="L15" t="n">
-        <v>349.6289321378196</v>
+        <v>349.6289321378195</v>
       </c>
       <c r="M15" t="n">
-        <v>460.5047371566217</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>488.5585973628865</v>
       </c>
       <c r="O15" t="n">
-        <v>289.2913579337002</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>287.6875952514739</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.3703872434515</v>
+        <v>30.37038724345148</v>
       </c>
       <c r="L16" t="n">
-        <v>94.95094719301522</v>
+        <v>94.9509471930152</v>
       </c>
       <c r="M16" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N16" t="n">
-        <v>113.4660600454341</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O16" t="n">
-        <v>88.62619518868843</v>
+        <v>88.62619518868838</v>
       </c>
       <c r="P16" t="n">
-        <v>52.07675575459804</v>
+        <v>52.076755754598</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547637</v>
+        <v>73.77900158547631</v>
       </c>
       <c r="K17" t="n">
-        <v>232.5400468784908</v>
+        <v>232.5400468784907</v>
       </c>
       <c r="L17" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N17" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O17" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P17" t="n">
         <v>235.8148076611911</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743898</v>
+        <v>99.08532226743891</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>50.31259146007135</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>294.5503828586868</v>
+        <v>349.6289321378195</v>
       </c>
       <c r="M18" t="n">
         <v>460.5047371566217</v>
@@ -35980,7 +35980,7 @@
         <v>379.8491252296668</v>
       </c>
       <c r="P18" t="n">
-        <v>287.6875952514739</v>
+        <v>282.9216374324122</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.3703872434515</v>
+        <v>30.37038724345148</v>
       </c>
       <c r="L19" t="n">
-        <v>94.95094719301522</v>
+        <v>94.9509471930152</v>
       </c>
       <c r="M19" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N19" t="n">
-        <v>113.4660600454341</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O19" t="n">
-        <v>88.62619518868843</v>
+        <v>88.62619518868838</v>
       </c>
       <c r="P19" t="n">
-        <v>52.07675575459804</v>
+        <v>52.076755754598</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547635</v>
+        <v>73.77900158547631</v>
       </c>
       <c r="K20" t="n">
-        <v>232.5400468784908</v>
+        <v>232.5400468784907</v>
       </c>
       <c r="L20" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M20" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N20" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O20" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P20" t="n">
-        <v>235.8148076611911</v>
+        <v>235.814807661191</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.08532226743897</v>
+        <v>99.0853222674389</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>274.7674606689307</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>460.5047371566217</v>
+        <v>434.0002773410404</v>
       </c>
       <c r="N21" t="n">
-        <v>488.5585973628865</v>
+        <v>488.5585973628864</v>
       </c>
       <c r="O21" t="n">
-        <v>379.8491252296668</v>
+        <v>379.8491252296667</v>
       </c>
       <c r="P21" t="n">
         <v>287.6875952514739</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.3703872434515</v>
+        <v>30.37038724345147</v>
       </c>
       <c r="L22" t="n">
-        <v>94.95094719301522</v>
+        <v>94.95094719301518</v>
       </c>
       <c r="M22" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N22" t="n">
-        <v>113.4660600454341</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O22" t="n">
-        <v>88.62619518868841</v>
+        <v>88.62619518868838</v>
       </c>
       <c r="P22" t="n">
-        <v>52.07675575459803</v>
+        <v>52.076755754598</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307146</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36451,7 +36451,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36688,13 +36688,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37162,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>60.29709682323572</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37636,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37873,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38113,10 +38113,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
